--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N2">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P2">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q2">
-        <v>27.35284195058202</v>
+        <v>729.971896793895</v>
       </c>
       <c r="R2">
-        <v>27.35284195058202</v>
+        <v>6569.747071145055</v>
       </c>
       <c r="S2">
-        <v>0.02192609669626508</v>
+        <v>0.1224452493032605</v>
       </c>
       <c r="T2">
-        <v>0.02192609669626508</v>
+        <v>0.1224452493032605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N3">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P3">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q3">
-        <v>66.90537377801142</v>
+        <v>129.80189417022</v>
       </c>
       <c r="R3">
-        <v>66.90537377801142</v>
+        <v>1168.21704753198</v>
       </c>
       <c r="S3">
-        <v>0.05363149092905214</v>
+        <v>0.02177292764490567</v>
       </c>
       <c r="T3">
-        <v>0.05363149092905214</v>
+        <v>0.02177292764490567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>131.336294436091</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>131.336294436091</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N4">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P4">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q4">
-        <v>125.7167635204187</v>
+        <v>3.60899050481</v>
       </c>
       <c r="R4">
-        <v>125.7167635204187</v>
+        <v>32.48091454329001</v>
       </c>
       <c r="S4">
-        <v>0.1007748269181784</v>
+        <v>0.0006053708972022665</v>
       </c>
       <c r="T4">
-        <v>0.1007748269181784</v>
+        <v>0.0006053708972022663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>131.336294436091</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>131.336294436091</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.347271241241651</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N5">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P5">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q5">
-        <v>307.5046852057181</v>
+        <v>322.168195051865</v>
       </c>
       <c r="R5">
-        <v>307.5046852057181</v>
+        <v>2899.513755466785</v>
       </c>
       <c r="S5">
-        <v>0.2464964143234726</v>
+        <v>0.05404038858751445</v>
       </c>
       <c r="T5">
-        <v>0.2464964143234726</v>
+        <v>0.05404038858751443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.957212658238909</v>
+        <v>5.970993</v>
       </c>
       <c r="N6">
-        <v>0.957212658238909</v>
+        <v>17.912979</v>
       </c>
       <c r="O6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="P6">
-        <v>0.2901905339407403</v>
+        <v>0.6157237531330177</v>
       </c>
       <c r="Q6">
-        <v>170.869903095387</v>
+        <v>791.4238440983349</v>
       </c>
       <c r="R6">
-        <v>170.869903095387</v>
+        <v>7122.814596885015</v>
       </c>
       <c r="S6">
-        <v>0.1369696803176673</v>
+        <v>0.1327531790207075</v>
       </c>
       <c r="T6">
-        <v>0.1369696803176673</v>
+        <v>0.1327531790207075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>178.507776328152</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>178.507776328152</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.4719991326306936</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.34135344328107</v>
+        <v>1.061748</v>
       </c>
       <c r="N7">
-        <v>2.34135344328107</v>
+        <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="P7">
-        <v>0.7098094660592597</v>
+        <v>0.10948655666511</v>
       </c>
       <c r="Q7">
-        <v>417.9497967583658</v>
+        <v>140.72913561006</v>
       </c>
       <c r="R7">
-        <v>417.9497967583658</v>
+        <v>1266.56222049054</v>
       </c>
       <c r="S7">
-        <v>0.3350294523130263</v>
+        <v>0.02360585958129213</v>
       </c>
       <c r="T7">
-        <v>0.3350294523130263</v>
+        <v>0.02360585958129212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.7755534428927</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>39.7755534428927</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.957212658238909</v>
+        <v>0.02952066666666667</v>
       </c>
       <c r="N8">
-        <v>0.957212658238909</v>
+        <v>0.088562</v>
       </c>
       <c r="O8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987976</v>
       </c>
       <c r="P8">
-        <v>0.2901905339407403</v>
+        <v>0.003044146203987975</v>
       </c>
       <c r="Q8">
-        <v>38.07366324399511</v>
+        <v>3.912809727574444</v>
       </c>
       <c r="R8">
-        <v>38.07366324399511</v>
+        <v>35.21528754817</v>
       </c>
       <c r="S8">
-        <v>0.03051993000862958</v>
+        <v>0.0006563334351272283</v>
       </c>
       <c r="T8">
-        <v>0.03051993000862958</v>
+        <v>0.0006563334351272282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.7755534428927</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>39.7755534428927</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.1051720385023381</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.34135344328107</v>
+        <v>2.635257666666666</v>
       </c>
       <c r="N9">
-        <v>2.34135344328107</v>
+        <v>7.905773</v>
       </c>
       <c r="O9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="P9">
-        <v>0.7098094660592597</v>
+        <v>0.2717455439978843</v>
       </c>
       <c r="Q9">
-        <v>93.12862901192703</v>
+        <v>349.2895993585894</v>
       </c>
       <c r="R9">
-        <v>93.12862901192703</v>
+        <v>3143.606394227305</v>
       </c>
       <c r="S9">
-        <v>0.07465210849370847</v>
+        <v>0.05858972415286572</v>
       </c>
       <c r="T9">
-        <v>0.07465210849370847</v>
+        <v>0.0585897241528657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H10">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I10">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J10">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>5.970993</v>
+      </c>
+      <c r="N10">
+        <v>17.912979</v>
+      </c>
+      <c r="O10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P10">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q10">
+        <v>1911.251690174722</v>
+      </c>
+      <c r="R10">
+        <v>17201.2652115725</v>
+      </c>
+      <c r="S10">
+        <v>0.3205927388610107</v>
+      </c>
+      <c r="T10">
+        <v>0.3205927388610107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H11">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I11">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J11">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.061748</v>
+      </c>
+      <c r="N11">
+        <v>3.185244</v>
+      </c>
+      <c r="O11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P11">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q11">
+        <v>339.854302213992</v>
+      </c>
+      <c r="R11">
+        <v>3058.688719925928</v>
+      </c>
+      <c r="S11">
+        <v>0.05700705046885843</v>
+      </c>
+      <c r="T11">
+        <v>0.05700705046885842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H12">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I12">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J12">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.088562</v>
+      </c>
+      <c r="O12">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P12">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q12">
+        <v>9.44925309102711</v>
+      </c>
+      <c r="R12">
+        <v>85.043277819244</v>
+      </c>
+      <c r="S12">
+        <v>0.001585014649936721</v>
+      </c>
+      <c r="T12">
+        <v>0.001585014649936721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>320.0894206666666</v>
+      </c>
+      <c r="H13">
+        <v>960.2682619999999</v>
+      </c>
+      <c r="I13">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="J13">
+        <v>0.5206762565675317</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.905773</v>
+      </c>
+      <c r="O13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P13">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q13">
+        <v>843.518099830725</v>
+      </c>
+      <c r="R13">
+        <v>7591.662898476526</v>
+      </c>
+      <c r="S13">
+        <v>0.1414914525877259</v>
+      </c>
+      <c r="T13">
+        <v>0.1414914525877259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H14">
+        <v>119.60968</v>
+      </c>
+      <c r="I14">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J14">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>5.970993</v>
+      </c>
+      <c r="N14">
+        <v>17.912979</v>
+      </c>
+      <c r="O14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="P14">
+        <v>0.6157237531330177</v>
+      </c>
+      <c r="Q14">
+        <v>238.06285400408</v>
+      </c>
+      <c r="R14">
+        <v>2142.56568603672</v>
+      </c>
+      <c r="S14">
+        <v>0.03993258594803902</v>
+      </c>
+      <c r="T14">
+        <v>0.03993258594803902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H15">
+        <v>119.60968</v>
+      </c>
+      <c r="I15">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J15">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.061748</v>
+      </c>
+      <c r="N15">
+        <v>3.185244</v>
+      </c>
+      <c r="O15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="P15">
+        <v>0.10948655666511</v>
+      </c>
+      <c r="Q15">
+        <v>42.33177950687999</v>
+      </c>
+      <c r="R15">
+        <v>380.98601556192</v>
+      </c>
+      <c r="S15">
+        <v>0.007100718970053815</v>
+      </c>
+      <c r="T15">
+        <v>0.007100718970053814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H16">
+        <v>119.60968</v>
+      </c>
+      <c r="I16">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J16">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02952066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.088562</v>
+      </c>
+      <c r="O16">
+        <v>0.003044146203987976</v>
+      </c>
+      <c r="P16">
+        <v>0.003044146203987975</v>
+      </c>
+      <c r="Q16">
+        <v>1.176985831128889</v>
+      </c>
+      <c r="R16">
+        <v>10.59287248016</v>
+      </c>
+      <c r="S16">
+        <v>0.0001974272217217601</v>
+      </c>
+      <c r="T16">
+        <v>0.0001974272217217601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.86989333333333</v>
+      </c>
+      <c r="H17">
+        <v>119.60968</v>
+      </c>
+      <c r="I17">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="J17">
+        <v>0.06485471080959287</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.635257666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.905773</v>
+      </c>
+      <c r="O17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="P17">
+        <v>0.2717455439978843</v>
+      </c>
+      <c r="Q17">
+        <v>105.0674420758489</v>
+      </c>
+      <c r="R17">
+        <v>945.6069786826399</v>
+      </c>
+      <c r="S17">
+        <v>0.01762397866977828</v>
+      </c>
+      <c r="T17">
+        <v>0.01762397866977828</v>
       </c>
     </row>
   </sheetData>
